--- a/Alomvaros_done.xlsx
+++ b/Alomvaros_done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D154TAN-16\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B072A0C-CA77-44E9-B3A3-F6631D32161A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFD3048-7A23-4620-A6C7-2767B6715745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{7F146E1F-84D3-49EE-ABA4-57AD93846553}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{7F146E1F-84D3-49EE-ABA4-57AD93846553}"/>
   </bookViews>
   <sheets>
     <sheet name="Epuletstilusarány" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>projekt_azon</t>
   </si>
@@ -313,13 +313,25 @@
     <t>Mennyiség / tipus</t>
   </si>
   <si>
-    <t>59 év</t>
-  </si>
-  <si>
     <t>típus</t>
   </si>
   <si>
     <t>Sport létesítmény</t>
+  </si>
+  <si>
+    <t>1965-1977</t>
+  </si>
+  <si>
+    <t>1977-1989</t>
+  </si>
+  <si>
+    <t>1989-2001</t>
+  </si>
+  <si>
+    <t>2001-2013</t>
+  </si>
+  <si>
+    <t>2013-2025</t>
   </si>
 </sst>
 </file>
@@ -327,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.000,&quot; arany&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000,&quot; arany&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -473,7 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,10 +500,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF996600"/>
+      <color rgb="FFFDDEBB"/>
       <color rgb="FFFF9966"/>
       <color rgb="FF9999FF"/>
       <color rgb="FF66FF99"/>
-      <color rgb="FF996600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -519,7 +532,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Alomvaros_v2.xlsx]Epuletstilusarány!Kimutatás2</c:name>
+    <c:name>[Alomvaros_done.xlsx]Epuletstilusarány!Kimutatás2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1268,25 +1281,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>1965</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1977</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>1989</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2001</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2013</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:strRef>
+              <c:f>Lakosok!$H$3:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1965-1977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1977-1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989-2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001-2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013-2025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1405,7 +1420,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ##0\ &quot; fő&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1462,9 +1477,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent6">
-        <a:lumMod val="40000"/>
-        <a:lumOff val="60000"/>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
       </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3745,16 +3760,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46795</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>377065</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189670</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142045</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>315153</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>284920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48453</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4398,7 +4413,7 @@
   <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB30297-5BC0-480E-BD74-820FA21FA09C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,7 +4558,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -4577,7 +4592,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -4594,7 +4609,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -4611,7 +4626,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>106</v>
       </c>
@@ -4645,7 +4660,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -4662,7 +4677,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -4679,7 +4694,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -4696,7 +4711,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -4894,7 +4909,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4943,9 +4958,6 @@
         <f>2025-C2</f>
         <v>60</v>
       </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -4967,8 +4979,8 @@
         <f t="shared" ref="F3:F31" si="0">2025-C3</f>
         <v>50</v>
       </c>
-      <c r="H3">
-        <v>1965</v>
+      <c r="H3" t="s">
+        <v>94</v>
       </c>
       <c r="I3">
         <v>1977</v>
@@ -4998,8 +5010,8 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H4">
-        <v>1977</v>
+      <c r="H4" t="s">
+        <v>95</v>
       </c>
       <c r="I4">
         <v>1989</v>
@@ -5029,8 +5041,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H5">
-        <v>1989</v>
+      <c r="H5" t="s">
+        <v>96</v>
       </c>
       <c r="I5">
         <v>2001</v>
@@ -5060,8 +5072,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H6">
-        <v>2001</v>
+      <c r="H6" t="s">
+        <v>97</v>
       </c>
       <c r="I6">
         <v>2013</v>
@@ -5091,8 +5103,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="H7">
-        <v>2013</v>
+      <c r="H7" t="s">
+        <v>98</v>
       </c>
       <c r="J7">
         <f>COUNTIFS(C2:C31,"&gt;=2013")</f>
@@ -5613,7 +5625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045819FD-42BD-4A72-A7AE-904B7042C31E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -5634,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -5675,7 +5687,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="13">
         <v>45092</v>
